--- a/zameni.xlsx
+++ b/zameni.xlsx
@@ -542,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -1069,6 +1069,61 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Аббасова Е.Н.</t>
+        </is>
+      </c>
+      <c r="D10" s="13" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E10" s="13" t="inlineStr">
+        <is>
+          <t>окружающий мир</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="inlineStr">
+        <is>
+          <t>2с</t>
+        </is>
+      </c>
+      <c r="G10" s="13" t="inlineStr">
+        <is>
+          <t>листок нетрудоспособности</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Вазлеев В.А.</t>
+        </is>
+      </c>
+      <c r="I10" s="13" t="inlineStr">
+        <is>
+          <t>3377</t>
+        </is>
+      </c>
+      <c r="J10" s="13" t="inlineStr">
+        <is>
+          <t>СГЗ</t>
+        </is>
+      </c>
+      <c r="K10" s="13" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="8" scale="89"/>

--- a/zameni.xlsx
+++ b/zameni.xlsx
@@ -542,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -1124,6 +1124,171 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Аглиева М.Р.</t>
+        </is>
+      </c>
+      <c r="D11" s="13" t="inlineStr">
+        <is>
+          <t>3328</t>
+        </is>
+      </c>
+      <c r="E11" s="13" t="inlineStr">
+        <is>
+          <t>английский язык</t>
+        </is>
+      </c>
+      <c r="F11" s="13" t="inlineStr">
+        <is>
+          <t>9Ш</t>
+        </is>
+      </c>
+      <c r="G11" s="13" t="inlineStr">
+        <is>
+          <t>листок нетрудоспособности</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Голубева Е.Л.</t>
+        </is>
+      </c>
+      <c r="I11" s="13" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="J11" s="13" t="inlineStr">
+        <is>
+          <t>СГЗ</t>
+        </is>
+      </c>
+      <c r="K11" s="13" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Аббасова Е.Н.</t>
+        </is>
+      </c>
+      <c r="D12" s="13" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E12" s="13" t="inlineStr">
+        <is>
+          <t>литературное чтение</t>
+        </is>
+      </c>
+      <c r="F12" s="13" t="inlineStr">
+        <is>
+          <t>2С</t>
+        </is>
+      </c>
+      <c r="G12" s="13" t="inlineStr">
+        <is>
+          <t>очередной отпуск</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Коротаева Т.А.</t>
+        </is>
+      </c>
+      <c r="I12" s="13" t="inlineStr">
+        <is>
+          <t>3613</t>
+        </is>
+      </c>
+      <c r="J12" s="13" t="inlineStr">
+        <is>
+          <t>ПД</t>
+        </is>
+      </c>
+      <c r="K12" s="13" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="inlineStr">
+        <is>
+          <t>26.05.2022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Истомина А.С.</t>
+        </is>
+      </c>
+      <c r="D13" s="13" t="inlineStr">
+        <is>
+          <t>3604</t>
+        </is>
+      </c>
+      <c r="E13" s="13" t="inlineStr">
+        <is>
+          <t>музыка</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="inlineStr">
+        <is>
+          <t>5Д</t>
+        </is>
+      </c>
+      <c r="G13" s="13" t="inlineStr">
+        <is>
+          <t>листок нетрудоспособности</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Стасенко Р.О.</t>
+        </is>
+      </c>
+      <c r="I13" s="13" t="inlineStr">
+        <is>
+          <t>3211</t>
+        </is>
+      </c>
+      <c r="J13" s="13" t="inlineStr">
+        <is>
+          <t>СГЗ</t>
+        </is>
+      </c>
+      <c r="K13" s="13" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="8" scale="89"/>

--- a/zameni.xlsx
+++ b/zameni.xlsx
@@ -542,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -1289,6 +1289,336 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Аббасова Е.Н.</t>
+        </is>
+      </c>
+      <c r="D14" s="13" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E14" s="13" t="inlineStr">
+        <is>
+          <t>математика</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="inlineStr">
+        <is>
+          <t>2С</t>
+        </is>
+      </c>
+      <c r="G14" s="13" t="inlineStr">
+        <is>
+          <t>листок нетрудоспособности</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Коротаева Т.А.</t>
+        </is>
+      </c>
+      <c r="I14" s="13" t="inlineStr">
+        <is>
+          <t>3613</t>
+        </is>
+      </c>
+      <c r="J14" s="13" t="inlineStr">
+        <is>
+          <t>СГЗ</t>
+        </is>
+      </c>
+      <c r="K14" s="13" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Аббасова Е.Н.</t>
+        </is>
+      </c>
+      <c r="D15" s="13" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E15" s="13" t="inlineStr">
+        <is>
+          <t>математика</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="inlineStr">
+        <is>
+          <t>2С</t>
+        </is>
+      </c>
+      <c r="G15" s="13" t="inlineStr">
+        <is>
+          <t>листок нетрудоспособности</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Коротаева Т.А.</t>
+        </is>
+      </c>
+      <c r="I15" s="13" t="inlineStr">
+        <is>
+          <t>3613</t>
+        </is>
+      </c>
+      <c r="J15" s="13" t="inlineStr">
+        <is>
+          <t>СГЗ</t>
+        </is>
+      </c>
+      <c r="K15" s="13" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Аббасова Е.Н.</t>
+        </is>
+      </c>
+      <c r="D16" s="13" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E16" s="13" t="inlineStr">
+        <is>
+          <t>математика</t>
+        </is>
+      </c>
+      <c r="F16" s="13" t="inlineStr">
+        <is>
+          <t>2С</t>
+        </is>
+      </c>
+      <c r="G16" s="13" t="inlineStr">
+        <is>
+          <t>листок нетрудоспособности</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Коротаева Т.А.</t>
+        </is>
+      </c>
+      <c r="I16" s="13" t="inlineStr">
+        <is>
+          <t>3613</t>
+        </is>
+      </c>
+      <c r="J16" s="13" t="inlineStr">
+        <is>
+          <t>СГЗ</t>
+        </is>
+      </c>
+      <c r="K16" s="13" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Аббасова Е.Н.</t>
+        </is>
+      </c>
+      <c r="D17" s="13" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E17" s="13" t="inlineStr">
+        <is>
+          <t>математика</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="inlineStr">
+        <is>
+          <t>2С</t>
+        </is>
+      </c>
+      <c r="G17" s="13" t="inlineStr">
+        <is>
+          <t>листок нетрудоспособности</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Коротаева Т.А.</t>
+        </is>
+      </c>
+      <c r="I17" s="13" t="inlineStr">
+        <is>
+          <t>3613</t>
+        </is>
+      </c>
+      <c r="J17" s="13" t="inlineStr">
+        <is>
+          <t>СГЗ</t>
+        </is>
+      </c>
+      <c r="K17" s="13" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="inlineStr">
+        <is>
+          <t>13.05.2022</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Аббасова Е.Н.</t>
+        </is>
+      </c>
+      <c r="D18" s="13" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E18" s="13" t="inlineStr">
+        <is>
+          <t>математика</t>
+        </is>
+      </c>
+      <c r="F18" s="13" t="inlineStr">
+        <is>
+          <t>2с</t>
+        </is>
+      </c>
+      <c r="G18" s="13" t="inlineStr">
+        <is>
+          <t>листок нетрудоспособности</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Попова Ю.Н.</t>
+        </is>
+      </c>
+      <c r="I18" s="13" t="inlineStr">
+        <is>
+          <t>3362</t>
+        </is>
+      </c>
+      <c r="J18" s="13" t="inlineStr">
+        <is>
+          <t>СГЗ</t>
+        </is>
+      </c>
+      <c r="K18" s="13" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="inlineStr">
+        <is>
+          <t>13.05.2022</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Аббасова Е.Н.</t>
+        </is>
+      </c>
+      <c r="D19" s="13" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E19" s="13" t="inlineStr">
+        <is>
+          <t>математика</t>
+        </is>
+      </c>
+      <c r="F19" s="13" t="inlineStr">
+        <is>
+          <t>2с</t>
+        </is>
+      </c>
+      <c r="G19" s="13" t="inlineStr">
+        <is>
+          <t>листок нетрудоспособности</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Попова Ю.Н.</t>
+        </is>
+      </c>
+      <c r="I19" s="13" t="inlineStr">
+        <is>
+          <t>3362</t>
+        </is>
+      </c>
+      <c r="J19" s="13" t="inlineStr">
+        <is>
+          <t>СГЗ</t>
+        </is>
+      </c>
+      <c r="K19" s="13" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="8" scale="89"/>
